--- a/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9C91DA-9AA8-4761-8902-909F1285F4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC97C84-5099-47CF-8975-3CDC6E20750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9ED88F7-B0AE-4B92-B282-C310A814D3A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CBF95AE-C76B-4DA6-B215-20D619A2850D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>Población que, necesitando medicamentos, no los pudo comprar por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -113,7 +113,7 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -128,7 +128,7 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,44%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -146,30 +146,18 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
     <t>98,32%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
@@ -218,25 +206,25 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>96,37%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,03%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -248,24 +236,30 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>99,33%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,87%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
+    <t>99,41%</t>
+  </si>
+  <si>
     <t>Sevilla</t>
   </si>
   <si>
@@ -284,16 +278,13 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,09%</t>
@@ -305,13 +296,10 @@
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -735,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6430AC4-5FC1-4D4E-ADE4-B03D650936D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3A574C-0DE3-44D4-AB24-512AEB013006}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1190,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1199,13 +1187,13 @@
         <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1223,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1235,10 +1223,10 @@
         <v>154649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1250,10 +1238,10 @@
         <v>252313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1312,7 +1300,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1330,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1345,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1360,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1393,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1408,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1467,7 +1455,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1485,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1500,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1515,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1548,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1563,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1622,7 +1610,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1634,13 +1622,13 @@
         <v>813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1664,13 +1652,13 @@
         <v>813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,10 +1673,10 @@
         <v>129296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1715,10 +1703,10 @@
         <v>248705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -1777,7 +1765,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1795,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1804,13 +1792,13 @@
         <v>744</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1819,7 +1807,7 @@
         <v>744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
@@ -1843,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1855,10 +1843,10 @@
         <v>327747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1870,10 +1858,10 @@
         <v>639819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -1932,7 +1920,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1950,7 +1938,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1965,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1980,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +1986,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2013,7 +2001,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2028,7 +2016,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2099,13 +2087,13 @@
         <v>813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2114,13 +2102,13 @@
         <v>2156</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2129,13 +2117,13 @@
         <v>2969</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,10 +2138,10 @@
         <v>1517718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -2165,13 +2153,13 @@
         <v>1682531</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>3832</v>
@@ -2180,13 +2168,13 @@
         <v>3200249</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2230,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC97C84-5099-47CF-8975-3CDC6E20750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4609690-220E-4749-A6DD-D159509F4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CBF95AE-C76B-4DA6-B215-20D619A2850D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A890E4D5-A344-432A-9DB5-53A550FE96C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -723,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3A574C-0DE3-44D4-AB24-512AEB013006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56787FF6-6777-47C3-8252-F024B962F785}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4609690-220E-4749-A6DD-D159509F4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C338676A-7A24-4F65-880B-DD16487F13D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A890E4D5-A344-432A-9DB5-53A550FE96C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAF13729-D517-4A8B-964C-2B8C9B40E397}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="96">
   <si>
     <t>Población que, necesitando medicamentos, no los pudo comprar por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -113,7 +113,7 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -128,7 +128,7 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,39%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -146,18 +146,30 @@
     <t>0,4%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
     <t>98,32%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
+    <t>97,74%</t>
+  </si>
+  <si>
     <t>99,76%</t>
   </si>
   <si>
+    <t>98,63%</t>
+  </si>
+  <si>
     <t>Granada</t>
   </si>
   <si>
@@ -206,25 +218,25 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>96,15%</t>
+    <t>96,37%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,09%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -236,30 +248,24 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>99,33%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,89%</t>
+    <t>98,87%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
@@ -278,13 +284,16 @@
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
     <t>0,13%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,09%</t>
@@ -296,10 +305,13 @@
     <t>99,95%</t>
   </si>
   <si>
+    <t>99,68%</t>
+  </si>
+  <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,66%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -723,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56787FF6-6777-47C3-8252-F024B962F785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733A393-A5A6-4E91-A557-D256BEA86631}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1178,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1187,13 +1199,13 @@
         <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1211,7 +1223,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1223,10 +1235,10 @@
         <v>154649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1238,10 +1250,10 @@
         <v>252313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1300,7 +1312,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1318,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1333,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1348,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1381,7 +1393,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1396,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1455,7 +1467,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1473,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1488,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1503,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,7 +1533,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1536,7 +1548,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1551,7 +1563,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1610,7 +1622,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1622,13 +1634,13 @@
         <v>813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1652,13 +1664,13 @@
         <v>813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,10 +1685,10 @@
         <v>129296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1703,10 +1715,10 @@
         <v>248705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -1765,7 +1777,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1783,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1792,13 +1804,13 @@
         <v>744</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1807,7 +1819,7 @@
         <v>744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
@@ -1831,7 +1843,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1843,10 +1855,10 @@
         <v>327747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1858,10 +1870,10 @@
         <v>639819</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -1920,7 +1932,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1938,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1953,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1968,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2001,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2016,7 +2028,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2087,13 +2099,13 @@
         <v>813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2102,13 +2114,13 @@
         <v>2156</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2117,13 +2129,13 @@
         <v>2969</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,10 +2150,10 @@
         <v>1517718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -2153,13 +2165,13 @@
         <v>1682531</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M29" s="7">
         <v>3832</v>
@@ -2168,13 +2180,13 @@
         <v>3200249</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,7 +2242,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C338676A-7A24-4F65-880B-DD16487F13D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF60910-1056-45C0-A58C-1FC5BDEBB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAF13729-D517-4A8B-964C-2B8C9B40E397}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C29DC53-507F-45D8-9866-D2CAF30A4618}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="98">
   <si>
     <t>Población que, necesitando medicamentos, no los pudo comprar por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -110,10 +110,10 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -125,10 +125,10 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -143,31 +143,31 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -215,28 +215,22 @@
     <t>Jaen</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -245,25 +239,31 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -284,7 +284,7 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -302,10 +302,13 @@
     <t>0,02%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,68%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -318,6 +321,9 @@
   </si>
   <si>
     <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -735,7 +741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733A393-A5A6-4E91-A557-D256BEA86631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A39E50F-211B-4913-9430-5F1BB1223BF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -907,7 +913,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -922,7 +928,7 @@
         <v>233</v>
       </c>
       <c r="I5" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -937,7 +943,7 @@
         <v>386</v>
       </c>
       <c r="N5" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -958,7 +964,7 @@
         <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -973,7 +979,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -988,7 +994,7 @@
         <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1026,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
@@ -1041,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
@@ -1077,7 +1083,7 @@
         <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>254420</v>
+        <v>236514</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
@@ -1092,7 +1098,7 @@
         <v>485</v>
       </c>
       <c r="N8" s="7">
-        <v>465693</v>
+        <v>447787</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -1128,7 +1134,7 @@
         <v>326</v>
       </c>
       <c r="I9" s="7">
-        <v>255215</v>
+        <v>237281</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1143,7 +1149,7 @@
         <v>486</v>
       </c>
       <c r="N9" s="7">
-        <v>466488</v>
+        <v>448554</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1181,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
@@ -1196,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
@@ -1217,7 +1223,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1232,7 +1238,7 @@
         <v>222</v>
       </c>
       <c r="I11" s="7">
-        <v>154649</v>
+        <v>144981</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1247,7 +1253,7 @@
         <v>335</v>
       </c>
       <c r="N11" s="7">
-        <v>252313</v>
+        <v>239893</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
@@ -1268,7 +1274,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1283,7 +1289,7 @@
         <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1298,7 +1304,7 @@
         <v>336</v>
       </c>
       <c r="N12" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1372,7 +1378,7 @@
         <v>131</v>
       </c>
       <c r="D14" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1387,7 +1393,7 @@
         <v>278</v>
       </c>
       <c r="I14" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1402,7 +1408,7 @@
         <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1423,7 +1429,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1438,7 +1444,7 @@
         <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1453,7 +1459,7 @@
         <v>409</v>
       </c>
       <c r="N15" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1527,7 +1533,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1542,7 +1548,7 @@
         <v>163</v>
       </c>
       <c r="I17" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1557,7 +1563,7 @@
         <v>271</v>
       </c>
       <c r="N17" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -1578,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1593,7 +1599,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1608,7 +1614,7 @@
         <v>271</v>
       </c>
       <c r="N18" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1631,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>59</v>
@@ -1661,16 +1667,16 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1688,13 @@
         <v>176</v>
       </c>
       <c r="D20" s="7">
-        <v>129296</v>
+        <v>124830</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1697,7 +1703,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -1712,13 +1718,13 @@
         <v>376</v>
       </c>
       <c r="N20" s="7">
-        <v>248705</v>
+        <v>235782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>
@@ -1733,7 +1739,7 @@
         <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1748,7 +1754,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1763,7 +1769,7 @@
         <v>377</v>
       </c>
       <c r="N21" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1777,7 +1783,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1795,37 +1801,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1843,13 @@
         <v>285</v>
       </c>
       <c r="D23" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1852,13 +1858,13 @@
         <v>435</v>
       </c>
       <c r="I23" s="7">
-        <v>327747</v>
+        <v>306167</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1867,13 +1873,13 @@
         <v>720</v>
       </c>
       <c r="N23" s="7">
-        <v>639819</v>
+        <v>617903</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -1888,7 +1894,7 @@
         <v>285</v>
       </c>
       <c r="D24" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1903,7 +1909,7 @@
         <v>436</v>
       </c>
       <c r="I24" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -1918,7 +1924,7 @@
         <v>721</v>
       </c>
       <c r="N24" s="7">
-        <v>640563</v>
+        <v>618590</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -1980,7 +1986,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,7 +1998,7 @@
         <v>333</v>
       </c>
       <c r="D26" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
@@ -2007,7 +2013,7 @@
         <v>517</v>
       </c>
       <c r="I26" s="7">
-        <v>422264</v>
+        <v>349107</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>17</v>
@@ -2022,13 +2028,13 @@
         <v>850</v>
       </c>
       <c r="N26" s="7">
-        <v>838994</v>
+        <v>903023</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2043,7 +2049,7 @@
         <v>333</v>
       </c>
       <c r="D27" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -2058,7 +2064,7 @@
         <v>517</v>
       </c>
       <c r="I27" s="7">
-        <v>422264</v>
+        <v>349107</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -2073,7 +2079,7 @@
         <v>850</v>
       </c>
       <c r="N27" s="7">
-        <v>838994</v>
+        <v>903023</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2096,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>81</v>
@@ -2111,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>2156</v>
+        <v>2013</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>83</v>
@@ -2126,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>2969</v>
+        <v>2778</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>86</v>
@@ -2135,7 +2141,7 @@
         <v>87</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2153,13 @@
         <v>1459</v>
       </c>
       <c r="D29" s="7">
-        <v>1517718</v>
+        <v>1663014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -2162,31 +2168,31 @@
         <v>2373</v>
       </c>
       <c r="I29" s="7">
-        <v>1682531</v>
+        <v>1591961</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>3832</v>
       </c>
       <c r="N29" s="7">
-        <v>3200249</v>
+        <v>3254974</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2204,7 @@
         <v>1460</v>
       </c>
       <c r="D30" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2213,7 +2219,7 @@
         <v>2376</v>
       </c>
       <c r="I30" s="7">
-        <v>1684687</v>
+        <v>1593974</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2228,7 +2234,7 @@
         <v>3836</v>
       </c>
       <c r="N30" s="7">
-        <v>3203218</v>
+        <v>3257752</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2242,7 +2248,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
